--- a/base/Statement/Defects/93433_74_Плата инвертора ППН СМПК.758726.163 СМПК.435331.020_Самара.xlsx
+++ b/base/Statement/Defects/93433_74_Плата инвертора ППН СМПК.758726.163 СМПК.435331.020_Самара.xlsx
@@ -785,7 +785,7 @@
       <c r="C5" s="5" t="n"/>
       <c r="D5" s="28" t="inlineStr">
         <is>
-          <t>2022-02-18</t>
+          <t>2022-02-24</t>
         </is>
       </c>
       <c r="E5" s="31" t="n"/>
@@ -1272,7 +1272,7 @@
       </c>
       <c r="C47" s="9" t="inlineStr">
         <is>
-          <t>не подлежит востановлению</t>
+          <t>Не подлежит восстановлению.</t>
         </is>
       </c>
       <c r="D47" s="31" t="n"/>
